--- a/S7G2_Titan/2024_Jan_20_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
+++ b/S7G2_Titan/2024_Jan_20_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617452A3-EB46-47E3-A5CF-4FBBD6A585D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9FD3D6-BA87-4990-AAE6-2690646A8B8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16643" yWindow="11603" windowWidth="11783" windowHeight="11513" tabRatio="516" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16643" yWindow="12803" windowWidth="11783" windowHeight="11513" tabRatio="516" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7G2_6L_IO" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8044" uniqueCount="1332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8050" uniqueCount="1339">
   <si>
     <t>A</t>
   </si>
@@ -4024,9 +4024,6 @@
     <t>Total Revs @ ticks/rev</t>
   </si>
   <si>
-    <t>Ball Screw Distance Travelled</t>
-  </si>
-  <si>
     <t>Ball Screw Distance</t>
   </si>
   <si>
@@ -4034,6 +4031,30 @@
   </si>
   <si>
     <t>(kHz)</t>
+  </si>
+  <si>
+    <t>(mm)</t>
+  </si>
+  <si>
+    <t>Distance to Pulse Count Conversion</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>P/Rev</t>
+  </si>
+  <si>
+    <t>Screw Pitch</t>
+  </si>
+  <si>
+    <t>(mm/rev)</t>
+  </si>
+  <si>
+    <t>Req Pulse</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -4045,7 +4066,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -4247,7 +4268,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -4357,6 +4378,30 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4381,12 +4426,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4405,36 +4447,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -4906,23 +4930,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="55" t="s">
         <v>899</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="G1" s="55" t="s">
         <v>899</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="N1" s="41" t="s">
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="N1" s="55" t="s">
         <v>899</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -6337,7 +6361,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -6357,60 +6381,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="C1" s="49"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="C2" s="49"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="58"/>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="63" t="s">
         <v>1304</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="I3" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="59"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
-      <c r="I4" s="42" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="I4" s="56" t="s">
         <v>1316</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42" t="s">
+      <c r="J4" s="56"/>
+      <c r="K4" s="56" t="s">
         <v>1317</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42" t="s">
+      <c r="L4" s="56"/>
+      <c r="M4" s="56" t="s">
         <v>1323</v>
       </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
       <c r="R4" t="s">
         <v>1321</v>
       </c>
       <c r="S4" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="59"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="31"/>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="48" t="s">
         <v>1309</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="48" t="s">
         <v>1310</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="48" t="s">
         <v>1311</v>
       </c>
       <c r="I5" t="s">
@@ -6441,49 +6465,49 @@
         <v>1325</v>
       </c>
       <c r="R5" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="S5" t="s">
         <v>1305</v>
       </c>
       <c r="U5" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="59"/>
-      <c r="B6" s="64" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="49" t="s">
         <v>1312</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="43">
         <v>30</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="43">
         <v>60</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="43">
         <v>120</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="41">
         <v>30</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="41">
         <v>800</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="41">
         <v>2</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="41">
         <f>I6*J6*K6</f>
         <v>48000</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="41">
         <v>20</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="41">
         <v>20</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="41">
         <f>N6*L6</f>
         <v>960000</v>
       </c>
@@ -6491,63 +6515,63 @@
         <f>N6/M6</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="72">
+      <c r="Q6" s="53">
         <f>P6*60</f>
         <v>60</v>
       </c>
-      <c r="R6" s="50">
+      <c r="R6" s="42">
         <f>O6/Q6</f>
         <v>16000</v>
       </c>
       <c r="S6">
         <v>5</v>
       </c>
-      <c r="T6" s="50">
+      <c r="T6" s="42">
         <f>S6*N6</f>
         <v>100</v>
       </c>
-      <c r="U6" s="50">
+      <c r="U6" s="42">
         <f>T6/P6</f>
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="59"/>
-      <c r="B7" s="65" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="50" t="s">
         <v>1302</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="43">
         <f>C6*1000</f>
         <v>30000</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="43">
         <f>D6*1000</f>
         <v>60000</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="43">
         <f>E6*1000</f>
         <v>120000</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="41">
         <v>30</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="41">
         <v>1600</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="41">
         <v>2</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="41">
         <f>I7*J7*K7</f>
         <v>96000</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="41">
         <v>20</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="41">
         <v>20</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O7" s="41">
         <f>N7*L7</f>
         <v>1920000</v>
       </c>
@@ -6555,60 +6579,60 @@
         <f>N7/M7</f>
         <v>1</v>
       </c>
-      <c r="Q7" s="72">
+      <c r="Q7" s="53">
         <f>P7*60</f>
         <v>60</v>
       </c>
-      <c r="R7" s="50">
+      <c r="R7" s="42">
         <f>O7/Q7</f>
         <v>32000</v>
       </c>
       <c r="S7">
         <v>5</v>
       </c>
-      <c r="T7" s="50">
+      <c r="T7" s="42">
         <f t="shared" ref="T7:T8" si="0">S7*N7</f>
         <v>100</v>
       </c>
-      <c r="U7" s="50">
+      <c r="U7" s="42">
         <f t="shared" ref="U7:U8" si="1">T7/P7</f>
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="59"/>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="49" t="s">
         <v>1294</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="43">
         <v>2</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="43">
         <v>2</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="43">
         <v>2</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="41">
         <v>30</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="41">
         <v>3200</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="41">
         <v>2</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="41">
         <f>I8*J8*K8</f>
         <v>192000</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="41">
         <v>20</v>
       </c>
-      <c r="N8" s="49">
+      <c r="N8" s="41">
         <v>20</v>
       </c>
-      <c r="O8" s="49">
+      <c r="O8" s="41">
         <f>N8*L8</f>
         <v>3840000</v>
       </c>
@@ -6616,330 +6640,363 @@
         <f>N8/M8</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="72">
+      <c r="Q8" s="53">
         <f>P8*60</f>
         <v>60</v>
       </c>
-      <c r="R8" s="50">
+      <c r="R8" s="42">
         <f>O8/Q8</f>
         <v>64000</v>
       </c>
       <c r="S8">
         <v>5</v>
       </c>
-      <c r="T8" s="50">
+      <c r="T8" s="42">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="U8" s="50">
+      <c r="U8" s="42">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="59"/>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="49" t="s">
         <v>1301</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="43">
         <f>24*60*60</f>
         <v>86400</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="43">
         <f>24*60*60</f>
         <v>86400</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="43">
         <f>24*60*60</f>
         <v>86400</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="60"/>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="49" t="s">
         <v>1295</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="44">
         <f>C7/C8*C9</f>
         <v>1296000000</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="44">
         <f>D7/D8*D9</f>
         <v>2592000000</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="44">
         <f>E7/E8*E9</f>
         <v>5184000000</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="47" t="s">
         <v>941</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="48" t="s">
         <v>1296</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="47" t="s">
         <v>1303</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="47" t="s">
         <v>1303</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="47" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="47" t="s">
         <v>1297</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="45">
         <v>2147483647</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="46">
         <f>$B$12/C10</f>
         <v>1.657008986882716</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="46">
         <f>$B$12/D10</f>
         <v>0.82850449344135801</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="46">
         <f>$B$12/E10</f>
         <v>0.41425224672067901</v>
       </c>
-      <c r="I12" t="s">
-        <v>1328</v>
-      </c>
     </row>
     <row r="13" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="47" t="s">
         <v>1298</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="45">
         <v>4294967295</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="46">
         <f>$B$13/C10</f>
         <v>3.3140179745370371</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="46">
         <f>$B$13/D10</f>
         <v>1.6570089872685185</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="46">
         <f>$B$13/E10</f>
         <v>0.82850449363425926</v>
       </c>
-      <c r="I13" t="s">
-        <v>1305</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1320</v>
-      </c>
     </row>
     <row r="14" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="47" t="s">
         <v>1299</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="45">
         <v>9.2233720368547697E+18</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="46">
         <f>$B$14/C10</f>
         <v>7116799411.1533718</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="46">
         <f>$B$14/D10</f>
         <v>3558399705.5766859</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="46">
         <f>$B$14/E10</f>
         <v>1779199852.788343</v>
       </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14" s="50">
-        <f>N6</f>
-        <v>20</v>
-      </c>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="47" t="s">
         <v>1300</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B15" s="45">
         <v>1.84467440737095E+19</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="46">
         <f>$B$15/C10</f>
         <v>14233598822.306713</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="46">
         <f>$B$15/D10</f>
         <v>7116799411.1533566</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="46">
         <f>$B$15/E10</f>
         <v>3558399705.5766783</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B19" s="67" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I18" s="55" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+    </row>
+    <row r="19" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B19" s="70" t="s">
         <v>1307</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-    </row>
-    <row r="20" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B20" s="67" t="s">
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="I19" s="54" t="s">
+        <v>1333</v>
+      </c>
+      <c r="J19" s="54" t="s">
+        <v>883</v>
+      </c>
+      <c r="K19" s="54" t="s">
+        <v>1335</v>
+      </c>
+      <c r="L19" s="54" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B20" s="70" t="s">
         <v>1308</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-    </row>
-    <row r="24" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="61" t="s">
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="I20" s="54" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J20" s="54" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K20" s="54" t="s">
+        <v>1336</v>
+      </c>
+      <c r="L20" s="54" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I21" s="54">
+        <v>310</v>
+      </c>
+      <c r="J21" s="54">
+        <v>1600</v>
+      </c>
+      <c r="K21" s="54">
+        <v>5</v>
+      </c>
+      <c r="L21" s="54">
+        <f>J21/K21*I21</f>
+        <v>99200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="63" t="s">
         <v>1326</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-    </row>
-    <row r="25" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-    </row>
-    <row r="26" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="68"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="61" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+    </row>
+    <row r="25" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="71"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="72"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="63" t="s">
         <v>1327</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-    </row>
-    <row r="27" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="62" t="s">
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+    </row>
+    <row r="27" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="47" t="s">
         <v>941</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="48" t="s">
         <v>1296</v>
       </c>
-      <c r="C27" s="71">
+      <c r="C27" s="52">
         <f>L6</f>
         <v>48000</v>
       </c>
-      <c r="D27" s="71">
+      <c r="D27" s="52">
         <f>L7</f>
         <v>96000</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="52">
         <f>O8</f>
         <v>3840000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="62" t="s">
+    <row r="28" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="47" t="s">
         <v>1297</v>
       </c>
-      <c r="B28" s="53">
+      <c r="B28" s="45">
         <v>2147483647</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="44">
         <f>$B28/$C$27</f>
         <v>44739.242645833336</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28" s="46">
         <f>$B28/$D$27</f>
         <v>22369.621322916668</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="44">
         <f>$B28/$E$27</f>
         <v>559.24053307291672</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="62" t="s">
+    <row r="29" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="47" t="s">
         <v>1298</v>
       </c>
-      <c r="B29" s="53">
+      <c r="B29" s="45">
         <v>4294967295</v>
       </c>
-      <c r="C29" s="52">
-        <f t="shared" ref="C29:E31" si="2">$B29/$C$27</f>
+      <c r="C29" s="44">
+        <f t="shared" ref="C29:C31" si="2">$B29/$C$27</f>
         <v>89478.485312499994</v>
       </c>
-      <c r="D29" s="54">
+      <c r="D29" s="46">
         <f>$B29/$D$27</f>
         <v>44739.242656249997</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="44">
         <f>$B29/$E$27</f>
         <v>1118.48106640625</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="62" t="s">
+    <row r="30" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="47" t="s">
         <v>1299</v>
       </c>
-      <c r="B30" s="53">
+      <c r="B30" s="45">
         <v>9.2233720368547697E+18</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="44">
         <f t="shared" si="2"/>
         <v>192153584101141.03</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="46">
         <f>$B30/$D$27</f>
         <v>96076792050570.516</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="44">
         <f>$B30/$E$27</f>
         <v>2401919801264.2627</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="62" t="s">
+    <row r="31" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="47" t="s">
         <v>1300</v>
       </c>
-      <c r="B31" s="53">
+      <c r="B31" s="45">
         <v>1.84467440737095E+19</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="44">
         <f t="shared" si="2"/>
         <v>384307168202281.25</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="44">
         <f>$B31/$D$27</f>
         <v>192153584101140.63</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="44">
         <f>$B31/$E$27</f>
         <v>4803839602528.5156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A25:E25"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I18:L18"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7039,18 +7096,18 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="56" t="s">
         <v>889</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42" t="s">
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56" t="s">
         <v>888</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
       <c r="K9" s="18"/>
       <c r="L9" t="s">
         <v>890</v>
@@ -7172,10 +7229,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="18"/>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="56" t="s">
         <v>899</v>
       </c>
-      <c r="D19" s="42"/>
+      <c r="D19" s="56"/>
       <c r="F19" s="18" t="s">
         <v>890</v>
       </c>
@@ -7325,18 +7382,18 @@
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="56" t="s">
         <v>889</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42" t="s">
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56" t="s">
         <v>888</v>
       </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
@@ -7421,10 +7478,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B40" s="18"/>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="56" t="s">
         <v>899</v>
       </c>
-      <c r="D40" s="42"/>
+      <c r="D40" s="56"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
@@ -7510,10 +7567,10 @@
       <c r="A47" s="18" t="s">
         <v>957</v>
       </c>
-      <c r="E47" s="42" t="s">
+      <c r="E47" s="56" t="s">
         <v>965</v>
       </c>
-      <c r="F47" s="42"/>
+      <c r="F47" s="56"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
@@ -8038,11 +8095,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="57" t="s">
         <v>1216</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -22246,11 +22303,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
       <c r="E3" t="s">
         <v>92</v>
       </c>
@@ -22263,28 +22320,28 @@
       <c r="I3" t="s">
         <v>1209</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42" t="s">
+      <c r="K3" s="56"/>
+      <c r="L3" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42" t="s">
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
       <c r="Z3" t="s">
         <v>98</v>
       </c>
@@ -22376,7 +22433,7 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="56" t="s">
         <v>85</v>
       </c>
     </row>
@@ -22384,13 +22441,13 @@
       <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="56"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="56" t="s">
         <v>756</v>
       </c>
     </row>
@@ -22398,13 +22455,13 @@
       <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="56"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="56" t="s">
         <v>757</v>
       </c>
     </row>
@@ -22412,13 +22469,13 @@
       <c r="C10" s="3">
         <v>6</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="56"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="56" t="s">
         <v>758</v>
       </c>
     </row>
@@ -22426,13 +22483,13 @@
       <c r="C12" s="3">
         <v>8</v>
       </c>
-      <c r="D12" s="42"/>
+      <c r="D12" s="56"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C13" s="3">
         <v>9</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="59" t="s">
         <v>759</v>
       </c>
     </row>
@@ -22440,7 +22497,7 @@
       <c r="C14" s="3">
         <v>10</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="56"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P15" t="s">
@@ -22706,7 +22763,7 @@
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="58" t="s">
         <v>745</v>
       </c>
       <c r="E19" t="s">
@@ -22783,7 +22840,7 @@
       <c r="A20" s="3">
         <v>5</v>
       </c>
-      <c r="D20" s="44"/>
+      <c r="D20" s="58"/>
       <c r="E20" t="s">
         <v>126</v>
       </c>
@@ -22858,7 +22915,7 @@
       <c r="A21" s="3">
         <v>6</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="58"/>
       <c r="E21" t="s">
         <v>126</v>
       </c>
@@ -22933,7 +22990,7 @@
       <c r="A22" s="3">
         <v>7</v>
       </c>
-      <c r="D22" s="44"/>
+      <c r="D22" s="58"/>
       <c r="E22" t="s">
         <v>126</v>
       </c>
@@ -23008,7 +23065,7 @@
       <c r="A23" s="3">
         <v>8</v>
       </c>
-      <c r="D23" s="44"/>
+      <c r="D23" s="58"/>
       <c r="E23" t="s">
         <v>126</v>
       </c>
@@ -23083,7 +23140,7 @@
       <c r="A24" s="3">
         <v>9</v>
       </c>
-      <c r="D24" s="44"/>
+      <c r="D24" s="58"/>
       <c r="E24" t="s">
         <v>126</v>
       </c>
@@ -23158,7 +23215,7 @@
       <c r="A25" s="3">
         <v>10</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="58"/>
       <c r="E25" t="s">
         <v>126</v>
       </c>
@@ -23233,7 +23290,7 @@
       <c r="A26" s="3">
         <v>11</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="58"/>
       <c r="E26" t="s">
         <v>126</v>
       </c>
@@ -23308,7 +23365,7 @@
       <c r="A27" s="3">
         <v>12</v>
       </c>
-      <c r="D27" s="44"/>
+      <c r="D27" s="58"/>
       <c r="E27" t="s">
         <v>126</v>
       </c>
@@ -23383,7 +23440,7 @@
       <c r="A28" s="3">
         <v>13</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="58"/>
       <c r="E28" t="s">
         <v>126</v>
       </c>
@@ -23840,7 +23897,7 @@
       <c r="A34" s="3">
         <v>19</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="58" t="s">
         <v>747</v>
       </c>
       <c r="E34" t="s">
@@ -23917,7 +23974,7 @@
       <c r="A35" s="3">
         <v>20</v>
       </c>
-      <c r="D35" s="44"/>
+      <c r="D35" s="58"/>
       <c r="E35" t="s">
         <v>207</v>
       </c>
@@ -23992,7 +24049,7 @@
       <c r="A36" s="3">
         <v>21</v>
       </c>
-      <c r="D36" s="44"/>
+      <c r="D36" s="58"/>
       <c r="E36" t="s">
         <v>208</v>
       </c>
@@ -24067,7 +24124,7 @@
       <c r="A37" s="3">
         <v>22</v>
       </c>
-      <c r="D37" s="44"/>
+      <c r="D37" s="58"/>
       <c r="E37" t="s">
         <v>209</v>
       </c>
@@ -24142,7 +24199,7 @@
       <c r="A38" s="3">
         <v>23</v>
       </c>
-      <c r="D38" s="44"/>
+      <c r="D38" s="58"/>
       <c r="E38" t="s">
         <v>210</v>
       </c>
@@ -24217,7 +24274,7 @@
       <c r="A39" s="3">
         <v>24</v>
       </c>
-      <c r="D39" s="44"/>
+      <c r="D39" s="58"/>
       <c r="E39" t="s">
         <v>215</v>
       </c>
@@ -24292,7 +24349,7 @@
       <c r="A40" s="3">
         <v>25</v>
       </c>
-      <c r="D40" s="44"/>
+      <c r="D40" s="58"/>
       <c r="E40" t="s">
         <v>221</v>
       </c>
@@ -24367,7 +24424,7 @@
       <c r="A41" s="3">
         <v>26</v>
       </c>
-      <c r="D41" s="44"/>
+      <c r="D41" s="58"/>
       <c r="E41" t="s">
         <v>222</v>
       </c>
@@ -24442,7 +24499,7 @@
       <c r="A42" s="3">
         <v>27</v>
       </c>
-      <c r="D42" s="44"/>
+      <c r="D42" s="58"/>
       <c r="E42" t="s">
         <v>223</v>
       </c>
@@ -24517,7 +24574,7 @@
       <c r="A43" s="3">
         <v>28</v>
       </c>
-      <c r="D43" s="44"/>
+      <c r="D43" s="58"/>
       <c r="E43" t="s">
         <v>224</v>
       </c>
@@ -24592,7 +24649,7 @@
       <c r="A44" s="3">
         <v>29</v>
       </c>
-      <c r="D44" s="44"/>
+      <c r="D44" s="58"/>
       <c r="E44" t="s">
         <v>225</v>
       </c>
@@ -24667,7 +24724,7 @@
       <c r="A45" s="3">
         <v>30</v>
       </c>
-      <c r="D45" s="44"/>
+      <c r="D45" s="58"/>
       <c r="E45" t="s">
         <v>226</v>
       </c>
@@ -24742,7 +24799,7 @@
       <c r="A46" s="3">
         <v>31</v>
       </c>
-      <c r="D46" s="44" t="s">
+      <c r="D46" s="58" t="s">
         <v>748</v>
       </c>
       <c r="E46" t="s">
@@ -24819,7 +24876,7 @@
       <c r="A47" s="3">
         <v>32</v>
       </c>
-      <c r="D47" s="44"/>
+      <c r="D47" s="58"/>
       <c r="E47" t="s">
         <v>126</v>
       </c>
@@ -24894,7 +24951,7 @@
       <c r="A48" s="3">
         <v>33</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="58" t="s">
         <v>751</v>
       </c>
       <c r="E48" t="s">
@@ -24971,7 +25028,7 @@
       <c r="A49" s="3">
         <v>34</v>
       </c>
-      <c r="D49" s="44"/>
+      <c r="D49" s="58"/>
       <c r="E49" t="s">
         <v>228</v>
       </c>
@@ -25046,7 +25103,7 @@
       <c r="A50" s="3">
         <v>35</v>
       </c>
-      <c r="D50" s="44"/>
+      <c r="D50" s="58"/>
       <c r="E50" t="s">
         <v>209</v>
       </c>
@@ -25864,7 +25921,7 @@
       <c r="A61" s="3">
         <v>46</v>
       </c>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="58" t="s">
         <v>752</v>
       </c>
       <c r="F61" t="s">
@@ -25938,7 +25995,7 @@
       <c r="A62" s="3">
         <v>47</v>
       </c>
-      <c r="D62" s="44"/>
+      <c r="D62" s="58"/>
       <c r="F62" t="s">
         <v>126</v>
       </c>
@@ -26898,7 +26955,7 @@
       <c r="A75" s="3">
         <v>60</v>
       </c>
-      <c r="D75" s="44" t="s">
+      <c r="D75" s="58" t="s">
         <v>751</v>
       </c>
       <c r="E75" t="s">
@@ -26975,7 +27032,7 @@
       <c r="A76" s="3">
         <v>61</v>
       </c>
-      <c r="D76" s="44"/>
+      <c r="D76" s="58"/>
       <c r="E76" t="s">
         <v>386</v>
       </c>
@@ -27050,7 +27107,7 @@
       <c r="A77" s="3">
         <v>62</v>
       </c>
-      <c r="D77" s="44"/>
+      <c r="D77" s="58"/>
       <c r="E77" t="s">
         <v>387</v>
       </c>
@@ -27125,7 +27182,7 @@
       <c r="A78" s="3">
         <v>63</v>
       </c>
-      <c r="D78" s="44"/>
+      <c r="D78" s="58"/>
       <c r="E78" t="s">
         <v>209</v>
       </c>
@@ -27200,7 +27257,7 @@
       <c r="A79" s="3">
         <v>64</v>
       </c>
-      <c r="D79" s="44"/>
+      <c r="D79" s="58"/>
       <c r="E79" t="s">
         <v>388</v>
       </c>
@@ -27275,7 +27332,7 @@
       <c r="A80" s="3">
         <v>65</v>
       </c>
-      <c r="D80" s="44"/>
+      <c r="D80" s="58"/>
       <c r="E80" t="s">
         <v>388</v>
       </c>
@@ -27350,7 +27407,7 @@
       <c r="A81" s="3">
         <v>66</v>
       </c>
-      <c r="D81" s="44"/>
+      <c r="D81" s="58"/>
       <c r="E81" t="s">
         <v>389</v>
       </c>
@@ -27425,7 +27482,7 @@
       <c r="A82" s="3">
         <v>67</v>
       </c>
-      <c r="D82" s="44"/>
+      <c r="D82" s="58"/>
       <c r="E82" t="s">
         <v>390</v>
       </c>
@@ -27497,7 +27554,7 @@
       <c r="A83" s="3">
         <v>68</v>
       </c>
-      <c r="D83" s="44" t="s">
+      <c r="D83" s="58" t="s">
         <v>754</v>
       </c>
       <c r="E83" t="s">
@@ -27574,7 +27631,7 @@
       <c r="A84" s="3">
         <v>69</v>
       </c>
-      <c r="D84" s="44"/>
+      <c r="D84" s="58"/>
       <c r="E84" t="s">
         <v>126</v>
       </c>
@@ -27649,7 +27706,7 @@
       <c r="A85" s="3">
         <v>70</v>
       </c>
-      <c r="D85" s="44"/>
+      <c r="D85" s="58"/>
       <c r="E85" t="s">
         <v>126</v>
       </c>
@@ -27724,7 +27781,7 @@
       <c r="A86" s="3">
         <v>71</v>
       </c>
-      <c r="D86" s="44"/>
+      <c r="D86" s="58"/>
       <c r="E86" t="s">
         <v>126</v>
       </c>
@@ -27799,7 +27856,7 @@
       <c r="A87" s="3">
         <v>72</v>
       </c>
-      <c r="D87" s="44"/>
+      <c r="D87" s="58"/>
       <c r="E87" t="s">
         <v>126</v>
       </c>
@@ -28620,7 +28677,7 @@
       <c r="A98" s="3">
         <v>83</v>
       </c>
-      <c r="D98" s="44" t="s">
+      <c r="D98" s="58" t="s">
         <v>766</v>
       </c>
       <c r="E98" t="s">
@@ -28697,7 +28754,7 @@
       <c r="A99" s="3">
         <v>84</v>
       </c>
-      <c r="D99" s="44"/>
+      <c r="D99" s="58"/>
       <c r="E99" t="s">
         <v>386</v>
       </c>
@@ -28997,7 +29054,7 @@
       <c r="C103" s="3">
         <v>7</v>
       </c>
-      <c r="D103" s="44" t="s">
+      <c r="D103" s="58" t="s">
         <v>765</v>
       </c>
       <c r="E103" t="s">
@@ -29077,7 +29134,7 @@
       <c r="C104" s="3">
         <v>5</v>
       </c>
-      <c r="D104" s="44"/>
+      <c r="D104" s="58"/>
       <c r="E104" t="s">
         <v>456</v>
       </c>
@@ -29155,7 +29212,7 @@
       <c r="C105" s="3">
         <v>3</v>
       </c>
-      <c r="D105" s="44"/>
+      <c r="D105" s="58"/>
       <c r="E105" t="s">
         <v>460</v>
       </c>
@@ -29233,7 +29290,7 @@
       <c r="C106" s="3">
         <v>1</v>
       </c>
-      <c r="D106" s="44"/>
+      <c r="D106" s="58"/>
       <c r="E106" t="s">
         <v>70</v>
       </c>
@@ -29666,7 +29723,7 @@
       <c r="A112" s="3">
         <v>97</v>
       </c>
-      <c r="D112" s="44" t="s">
+      <c r="D112" s="58" t="s">
         <v>767</v>
       </c>
       <c r="E112" t="s">
@@ -29740,7 +29797,7 @@
       <c r="A113" s="3">
         <v>98</v>
       </c>
-      <c r="D113" s="44"/>
+      <c r="D113" s="58"/>
       <c r="E113" t="s">
         <v>209</v>
       </c>
@@ -30623,7 +30680,7 @@
       <c r="A125" s="3">
         <v>110</v>
       </c>
-      <c r="D125" s="44" t="s">
+      <c r="D125" s="58" t="s">
         <v>767</v>
       </c>
       <c r="E125" t="s">
@@ -30700,7 +30757,7 @@
       <c r="A126" s="3">
         <v>111</v>
       </c>
-      <c r="D126" s="44"/>
+      <c r="D126" s="58"/>
       <c r="E126" t="s">
         <v>209</v>
       </c>
@@ -30775,7 +30832,7 @@
       <c r="A127" s="3">
         <v>112</v>
       </c>
-      <c r="D127" s="44"/>
+      <c r="D127" s="58"/>
       <c r="E127" t="s">
         <v>526</v>
       </c>
@@ -31566,7 +31623,7 @@
       <c r="A138" s="3">
         <v>123</v>
       </c>
-      <c r="D138" s="44" t="s">
+      <c r="D138" s="58" t="s">
         <v>767</v>
       </c>
       <c r="E138" t="s">
@@ -31643,7 +31700,7 @@
       <c r="A139" s="3">
         <v>124</v>
       </c>
-      <c r="D139" s="44"/>
+      <c r="D139" s="58"/>
       <c r="E139" t="s">
         <v>209</v>
       </c>
@@ -33429,7 +33486,7 @@
       <c r="A163" s="3">
         <v>148</v>
       </c>
-      <c r="D163" s="44" t="s">
+      <c r="D163" s="58" t="s">
         <v>767</v>
       </c>
       <c r="E163" t="s">
@@ -33506,7 +33563,7 @@
       <c r="A164" s="3">
         <v>149</v>
       </c>
-      <c r="D164" s="44"/>
+      <c r="D164" s="58"/>
       <c r="E164" t="s">
         <v>221</v>
       </c>
@@ -33581,7 +33638,7 @@
       <c r="A165" s="3">
         <v>150</v>
       </c>
-      <c r="D165" s="44"/>
+      <c r="D165" s="58"/>
       <c r="E165" t="s">
         <v>209</v>
       </c>
@@ -33804,7 +33861,7 @@
       <c r="A168" s="3">
         <v>153</v>
       </c>
-      <c r="D168" s="44" t="s">
+      <c r="D168" s="58" t="s">
         <v>767</v>
       </c>
       <c r="E168" t="s">
@@ -33881,7 +33938,7 @@
       <c r="A169" s="3">
         <v>154</v>
       </c>
-      <c r="D169" s="44"/>
+      <c r="D169" s="58"/>
       <c r="E169" t="s">
         <v>689</v>
       </c>
@@ -33956,7 +34013,7 @@
       <c r="A170" s="3">
         <v>155</v>
       </c>
-      <c r="D170" s="44"/>
+      <c r="D170" s="58"/>
       <c r="E170" t="s">
         <v>690</v>
       </c>
@@ -34031,7 +34088,7 @@
       <c r="A171" s="3">
         <v>156</v>
       </c>
-      <c r="D171" s="44"/>
+      <c r="D171" s="58"/>
       <c r="E171" t="s">
         <v>691</v>
       </c>
@@ -34106,7 +34163,7 @@
       <c r="A172" s="3">
         <v>157</v>
       </c>
-      <c r="D172" s="44"/>
+      <c r="D172" s="58"/>
       <c r="E172" t="s">
         <v>692</v>
       </c>
@@ -34181,7 +34238,7 @@
       <c r="A173" s="3">
         <v>158</v>
       </c>
-      <c r="D173" s="44"/>
+      <c r="D173" s="58"/>
       <c r="E173" t="s">
         <v>693</v>
       </c>
@@ -35073,7 +35130,7 @@
       <c r="A185" s="3">
         <v>170</v>
       </c>
-      <c r="D185" s="44" t="s">
+      <c r="D185" s="58" t="s">
         <v>767</v>
       </c>
       <c r="E185" t="s">
@@ -35150,7 +35207,7 @@
       <c r="A186" s="3">
         <v>171</v>
       </c>
-      <c r="D186" s="44"/>
+      <c r="D186" s="58"/>
       <c r="E186" t="s">
         <v>221</v>
       </c>
@@ -35644,14 +35701,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="46"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -35915,19 +35972,19 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="61" t="s">
         <v>1155</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
@@ -36007,7 +36064,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
+      <c r="A8" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
